--- a/CEC_txt_to_xlsx/pandas_column_formats.xlsx
+++ b/CEC_txt_to_xlsx/pandas_column_formats.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="18195" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="CEC2017" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="231">
+  <si>
+    <t>AGEO2real2_P_AA_p2-AGEO2real2_P_AA_p3</t>
+  </si>
   <si>
     <t>No.</t>
   </si>
@@ -37,688 +40,691 @@
     <t>8.17E+9</t>
   </si>
   <si>
+    <t>1.02E+10</t>
+  </si>
+  <si>
+    <t>9.18E+9</t>
+  </si>
+  <si>
+    <t>1.43E+9</t>
+  </si>
+  <si>
+    <t>2.00E+2</t>
+  </si>
+  <si>
+    <t>1.24E+4</t>
+  </si>
+  <si>
+    <t>6.30E+3</t>
+  </si>
+  <si>
+    <t>8.63E+3</t>
+  </si>
+  <si>
     <t>7.28E+4</t>
   </si>
   <si>
+    <t>8.49E+4</t>
+  </si>
+  <si>
+    <t>7.89E+4</t>
+  </si>
+  <si>
+    <t>8.57E+3</t>
+  </si>
+  <si>
+    <t>5.76E+4</t>
+  </si>
+  <si>
+    <t>1.26E+5</t>
+  </si>
+  <si>
+    <t>9.18E+4</t>
+  </si>
+  <si>
+    <t>4.83E+4</t>
+  </si>
+  <si>
     <t>4.24E+3</t>
   </si>
   <si>
+    <t>7.54E+3</t>
+  </si>
+  <si>
+    <t>5.89E+3</t>
+  </si>
+  <si>
+    <t>2.33E+3</t>
+  </si>
+  <si>
+    <t>3.66E-1</t>
+  </si>
+  <si>
+    <t>1.56E+0</t>
+  </si>
+  <si>
+    <t>9.61E-1</t>
+  </si>
+  <si>
+    <t>8.41E-1</t>
+  </si>
+  <si>
     <t>1.68E+2</t>
   </si>
   <si>
+    <t>3.74E+2</t>
+  </si>
+  <si>
+    <t>2.71E+2</t>
+  </si>
+  <si>
+    <t>1.46E+2</t>
+  </si>
+  <si>
+    <t>1.19E+1</t>
+  </si>
+  <si>
+    <t>2.39E+1</t>
+  </si>
+  <si>
+    <t>1.79E+1</t>
+  </si>
+  <si>
+    <t>8.44E+0</t>
+  </si>
+  <si>
     <t>4.46E+1</t>
   </si>
   <si>
+    <t>9.08E+1</t>
+  </si>
+  <si>
+    <t>6.77E+1</t>
+  </si>
+  <si>
+    <t>3.26E+1</t>
+  </si>
+  <si>
+    <t>3.47E-7</t>
+  </si>
+  <si>
+    <t>5.36E-7</t>
+  </si>
+  <si>
+    <t>4.41E-7</t>
+  </si>
+  <si>
+    <t>1.33E-7</t>
+  </si>
+  <si>
     <t>6.58E+2</t>
   </si>
   <si>
+    <t>1.11E+3</t>
+  </si>
+  <si>
+    <t>8.86E+2</t>
+  </si>
+  <si>
+    <t>3.22E+2</t>
+  </si>
+  <si>
+    <t>2.76E+1</t>
+  </si>
+  <si>
+    <t>3.07E+1</t>
+  </si>
+  <si>
+    <t>2.91E+1</t>
+  </si>
+  <si>
+    <t>2.18E+0</t>
+  </si>
+  <si>
     <t>1.17E+2</t>
   </si>
   <si>
+    <t>2.23E+2</t>
+  </si>
+  <si>
+    <t>1.70E+2</t>
+  </si>
+  <si>
+    <t>7.45E+1</t>
+  </si>
+  <si>
+    <t>1.29E+1</t>
+  </si>
+  <si>
+    <t>1.49E+1</t>
+  </si>
+  <si>
+    <t>1.39E+1</t>
+  </si>
+  <si>
+    <t>1.41E+0</t>
+  </si>
+  <si>
     <t>1.98E+3</t>
   </si>
   <si>
+    <t>5.81E+3</t>
+  </si>
+  <si>
+    <t>3.90E+3</t>
+  </si>
+  <si>
+    <t>2.71E+3</t>
+  </si>
+  <si>
+    <t>3.45E+1</t>
+  </si>
+  <si>
+    <t>8.26E+1</t>
+  </si>
+  <si>
+    <t>5.85E+1</t>
+  </si>
+  <si>
+    <t>3.40E+1</t>
+  </si>
+  <si>
     <t>2.04E+3</t>
   </si>
   <si>
+    <t>2.37E+3</t>
+  </si>
+  <si>
+    <t>2.20E+3</t>
+  </si>
+  <si>
+    <t>2.32E+2</t>
+  </si>
+  <si>
+    <t>6.02E+2</t>
+  </si>
+  <si>
+    <t>7.38E+2</t>
+  </si>
+  <si>
+    <t>6.70E+2</t>
+  </si>
+  <si>
+    <t>9.67E+1</t>
+  </si>
+  <si>
     <t>2.66E+3</t>
   </si>
   <si>
+    <t>1.59E+4</t>
+  </si>
+  <si>
+    <t>9.27E+3</t>
+  </si>
+  <si>
+    <t>9.34E+3</t>
+  </si>
+  <si>
+    <t>1.45E+1</t>
+  </si>
+  <si>
+    <t>3.00E+1</t>
+  </si>
+  <si>
+    <t>2.23E+1</t>
+  </si>
+  <si>
+    <t>1.10E+1</t>
+  </si>
+  <si>
     <t>1.68E+8</t>
   </si>
   <si>
+    <t>2.66E+8</t>
+  </si>
+  <si>
+    <t>2.17E+8</t>
+  </si>
+  <si>
+    <t>6.96E+7</t>
+  </si>
+  <si>
+    <t>6.61E+4</t>
+  </si>
+  <si>
+    <t>6.22E+5</t>
+  </si>
+  <si>
+    <t>3.44E+5</t>
+  </si>
+  <si>
+    <t>3.93E+5</t>
+  </si>
+  <si>
     <t>2.31E+4</t>
   </si>
   <si>
+    <t>8.34E+4</t>
+  </si>
+  <si>
+    <t>5.32E+4</t>
+  </si>
+  <si>
+    <t>4.26E+4</t>
+  </si>
+  <si>
+    <t>2.26E+2</t>
+  </si>
+  <si>
+    <t>2.88E+4</t>
+  </si>
+  <si>
+    <t>1.45E+4</t>
+  </si>
+  <si>
+    <t>2.02E+4</t>
+  </si>
+  <si>
     <t>1.46E+4</t>
   </si>
   <si>
+    <t>1.85E+5</t>
+  </si>
+  <si>
+    <t>9.98E+4</t>
+  </si>
+  <si>
+    <t>1.21E+5</t>
+  </si>
+  <si>
+    <t>4.49E+3</t>
+  </si>
+  <si>
+    <t>6.49E+4</t>
+  </si>
+  <si>
+    <t>3.47E+4</t>
+  </si>
+  <si>
+    <t>4.27E+4</t>
+  </si>
+  <si>
     <t>2.07E+5</t>
   </si>
   <si>
+    <t>3.10E+5</t>
+  </si>
+  <si>
+    <t>2.59E+5</t>
+  </si>
+  <si>
+    <t>7.29E+4</t>
+  </si>
+  <si>
+    <t>9.55E+2</t>
+  </si>
+  <si>
+    <t>1.24E+5</t>
+  </si>
+  <si>
+    <t>6.26E+4</t>
+  </si>
+  <si>
+    <t>8.72E+4</t>
+  </si>
+  <si>
     <t>9.34E+2</t>
   </si>
   <si>
+    <t>9.45E+2</t>
+  </si>
+  <si>
+    <t>1.50E+1</t>
+  </si>
+  <si>
+    <t>4.05E+2</t>
+  </si>
+  <si>
+    <t>4.75E+2</t>
+  </si>
+  <si>
+    <t>4.40E+2</t>
+  </si>
+  <si>
+    <t>5.00E+1</t>
+  </si>
+  <si>
     <t>1.09E+3</t>
   </si>
   <si>
+    <t>2.67E+3</t>
+  </si>
+  <si>
+    <t>1.88E+3</t>
+  </si>
+  <si>
+    <t>5.97E+0</t>
+  </si>
+  <si>
+    <t>2.03E+1</t>
+  </si>
+  <si>
+    <t>1.32E+1</t>
+  </si>
+  <si>
+    <t>1.02E+1</t>
+  </si>
+  <si>
     <t>1.18E+6</t>
   </si>
   <si>
+    <t>3.21E+6</t>
+  </si>
+  <si>
+    <t>2.20E+6</t>
+  </si>
+  <si>
+    <t>1.43E+6</t>
+  </si>
+  <si>
+    <t>2.99E+3</t>
+  </si>
+  <si>
+    <t>5.70E+5</t>
+  </si>
+  <si>
+    <t>2.87E+5</t>
+  </si>
+  <si>
+    <t>4.01E+5</t>
+  </si>
+  <si>
     <t>1.51E+5</t>
   </si>
   <si>
+    <t>3.57E+5</t>
+  </si>
+  <si>
+    <t>2.54E+5</t>
+  </si>
+  <si>
+    <t>1.46E+5</t>
+  </si>
+  <si>
+    <t>1.51E+4</t>
+  </si>
+  <si>
+    <t>3.48E+4</t>
+  </si>
+  <si>
+    <t>2.50E+4</t>
+  </si>
+  <si>
+    <t>1.39E+4</t>
+  </si>
+  <si>
     <t>4.80E+2</t>
   </si>
   <si>
-    <t>3.22E+2</t>
+    <t>5.82E+2</t>
+  </si>
+  <si>
+    <t>5.31E+2</t>
+  </si>
+  <si>
+    <t>7.16E+1</t>
+  </si>
+  <si>
+    <t>3.98E+0</t>
+  </si>
+  <si>
+    <t>1.03E-4</t>
+  </si>
+  <si>
+    <t>3.35E+2</t>
+  </si>
+  <si>
+    <t>3.29E+2</t>
+  </si>
+  <si>
+    <t>9.74E+0</t>
+  </si>
+  <si>
+    <t>2.29E+2</t>
+  </si>
+  <si>
+    <t>2.30E+2</t>
+  </si>
+  <si>
+    <t>3.21E-1</t>
   </si>
   <si>
     <t>3.96E+2</t>
   </si>
   <si>
+    <t>5.42E+2</t>
+  </si>
+  <si>
+    <t>4.69E+2</t>
+  </si>
+  <si>
+    <t>1.03E+2</t>
+  </si>
+  <si>
+    <t>1.01E+2</t>
+  </si>
+  <si>
+    <t>1.21E+3</t>
+  </si>
+  <si>
+    <t>6.55E+2</t>
+  </si>
+  <si>
+    <t>7.83E+2</t>
+  </si>
+  <si>
     <t>5.72E+2</t>
   </si>
   <si>
+    <t>7.28E+2</t>
+  </si>
+  <si>
+    <t>6.50E+2</t>
+  </si>
+  <si>
+    <t>1.10E+2</t>
+  </si>
+  <si>
+    <t>3.23E+2</t>
+  </si>
+  <si>
+    <t>3.44E+2</t>
+  </si>
+  <si>
+    <t>3.34E+2</t>
+  </si>
+  <si>
+    <t>1.46E+1</t>
+  </si>
+  <si>
     <t>9.56E+2</t>
   </si>
   <si>
+    <t>9.88E+2</t>
+  </si>
+  <si>
+    <t>9.72E+2</t>
+  </si>
+  <si>
+    <t>2.25E+1</t>
+  </si>
+  <si>
+    <t>1.00E+2</t>
+  </si>
+  <si>
+    <t>2.22E+2</t>
+  </si>
+  <si>
+    <t>1.72E+2</t>
+  </si>
+  <si>
     <t>7.36E+2</t>
   </si>
   <si>
+    <t>2.00E+3</t>
+  </si>
+  <si>
+    <t>1.37E+3</t>
+  </si>
+  <si>
+    <t>8.91E+2</t>
+  </si>
+  <si>
+    <t>3.99E+2</t>
+  </si>
+  <si>
+    <t>4.47E+2</t>
+  </si>
+  <si>
+    <t>4.23E+2</t>
+  </si>
+  <si>
+    <t>3.38E+1</t>
+  </si>
+  <si>
     <t>2.54E+3</t>
   </si>
   <si>
+    <t>2.68E+3</t>
+  </si>
+  <si>
+    <t>2.61E+3</t>
+  </si>
+  <si>
+    <t>9.78E+1</t>
+  </si>
+  <si>
+    <t>4.34E+2</t>
+  </si>
+  <si>
+    <t>1.40E+3</t>
+  </si>
+  <si>
+    <t>9.17E+2</t>
+  </si>
+  <si>
+    <t>6.84E+2</t>
+  </si>
+  <si>
     <t>5.74E+2</t>
   </si>
   <si>
+    <t>6.75E+2</t>
+  </si>
+  <si>
+    <t>6.24E+2</t>
+  </si>
+  <si>
+    <t>7.20E+1</t>
+  </si>
+  <si>
+    <t>3.98E+2</t>
+  </si>
+  <si>
+    <t>4.03E+2</t>
+  </si>
+  <si>
+    <t>4.00E+2</t>
+  </si>
+  <si>
+    <t>3.56E+0</t>
+  </si>
+  <si>
     <t>1.13E+3</t>
   </si>
   <si>
+    <t>1.46E+3</t>
+  </si>
+  <si>
+    <t>1.29E+3</t>
+  </si>
+  <si>
+    <t>2.39E+2</t>
+  </si>
+  <si>
+    <t>9.09E-6</t>
+  </si>
+  <si>
+    <t>3.66E+2</t>
+  </si>
+  <si>
+    <t>1.83E+2</t>
+  </si>
+  <si>
+    <t>2.59E+2</t>
+  </si>
+  <si>
     <t>6.64E+2</t>
   </si>
   <si>
+    <t>9.76E+2</t>
+  </si>
+  <si>
+    <t>8.20E+2</t>
+  </si>
+  <si>
+    <t>2.21E+2</t>
+  </si>
+  <si>
+    <t>3.12E+2</t>
+  </si>
+  <si>
+    <t>3.32E+2</t>
+  </si>
+  <si>
+    <t>1.43E+1</t>
+  </si>
+  <si>
     <t>7.23E+5</t>
   </si>
   <si>
-    <t>1.02E+10</t>
-  </si>
-  <si>
-    <t>8.49E+4</t>
-  </si>
-  <si>
-    <t>7.54E+3</t>
-  </si>
-  <si>
-    <t>3.74E+2</t>
-  </si>
-  <si>
-    <t>9.08E+1</t>
-  </si>
-  <si>
-    <t>1.11E+3</t>
-  </si>
-  <si>
-    <t>2.23E+2</t>
-  </si>
-  <si>
-    <t>5.81E+3</t>
-  </si>
-  <si>
-    <t>2.37E+3</t>
-  </si>
-  <si>
-    <t>1.59E+4</t>
-  </si>
-  <si>
-    <t>2.66E+8</t>
-  </si>
-  <si>
-    <t>8.34E+4</t>
-  </si>
-  <si>
-    <t>1.85E+5</t>
-  </si>
-  <si>
-    <t>3.10E+5</t>
-  </si>
-  <si>
-    <t>9.55E+2</t>
-  </si>
-  <si>
-    <t>2.67E+3</t>
-  </si>
-  <si>
-    <t>3.21E+6</t>
-  </si>
-  <si>
-    <t>3.57E+5</t>
-  </si>
-  <si>
-    <t>5.82E+2</t>
-  </si>
-  <si>
-    <t>3.35E+2</t>
-  </si>
-  <si>
-    <t>5.42E+2</t>
-  </si>
-  <si>
-    <t>7.28E+2</t>
-  </si>
-  <si>
-    <t>9.88E+2</t>
-  </si>
-  <si>
-    <t>2.00E+3</t>
-  </si>
-  <si>
-    <t>2.68E+3</t>
-  </si>
-  <si>
-    <t>6.75E+2</t>
-  </si>
-  <si>
-    <t>1.46E+3</t>
-  </si>
-  <si>
-    <t>9.76E+2</t>
-  </si>
-  <si>
     <t>1.44E+6</t>
   </si>
   <si>
-    <t>9.18E+9</t>
-  </si>
-  <si>
-    <t>7.89E+4</t>
-  </si>
-  <si>
-    <t>5.89E+3</t>
-  </si>
-  <si>
-    <t>2.71E+2</t>
-  </si>
-  <si>
-    <t>6.77E+1</t>
-  </si>
-  <si>
-    <t>8.86E+2</t>
-  </si>
-  <si>
-    <t>1.70E+2</t>
-  </si>
-  <si>
-    <t>3.90E+3</t>
-  </si>
-  <si>
-    <t>2.20E+3</t>
-  </si>
-  <si>
-    <t>9.27E+3</t>
-  </si>
-  <si>
-    <t>2.17E+8</t>
-  </si>
-  <si>
-    <t>5.32E+4</t>
-  </si>
-  <si>
-    <t>9.98E+4</t>
-  </si>
-  <si>
-    <t>2.59E+5</t>
-  </si>
-  <si>
-    <t>9.45E+2</t>
-  </si>
-  <si>
-    <t>1.88E+3</t>
-  </si>
-  <si>
-    <t>2.20E+6</t>
-  </si>
-  <si>
-    <t>2.54E+5</t>
-  </si>
-  <si>
-    <t>5.31E+2</t>
-  </si>
-  <si>
-    <t>3.29E+2</t>
-  </si>
-  <si>
-    <t>4.69E+2</t>
-  </si>
-  <si>
-    <t>6.50E+2</t>
-  </si>
-  <si>
-    <t>9.72E+2</t>
-  </si>
-  <si>
-    <t>1.37E+3</t>
-  </si>
-  <si>
-    <t>2.61E+3</t>
-  </si>
-  <si>
-    <t>6.24E+2</t>
-  </si>
-  <si>
-    <t>1.29E+3</t>
-  </si>
-  <si>
-    <t>8.20E+2</t>
-  </si>
-  <si>
     <t>1.08E+6</t>
   </si>
   <si>
-    <t>1.43E+9</t>
-  </si>
-  <si>
-    <t>8.57E+3</t>
-  </si>
-  <si>
-    <t>2.33E+3</t>
-  </si>
-  <si>
-    <t>1.46E+2</t>
-  </si>
-  <si>
-    <t>3.26E+1</t>
-  </si>
-  <si>
-    <t>7.45E+1</t>
-  </si>
-  <si>
-    <t>2.71E+3</t>
-  </si>
-  <si>
-    <t>2.32E+2</t>
-  </si>
-  <si>
-    <t>9.34E+3</t>
-  </si>
-  <si>
-    <t>6.96E+7</t>
-  </si>
-  <si>
-    <t>4.26E+4</t>
-  </si>
-  <si>
-    <t>1.21E+5</t>
-  </si>
-  <si>
-    <t>7.29E+4</t>
-  </si>
-  <si>
-    <t>1.50E+1</t>
-  </si>
-  <si>
-    <t>1.43E+6</t>
-  </si>
-  <si>
-    <t>1.46E+5</t>
-  </si>
-  <si>
-    <t>7.16E+1</t>
-  </si>
-  <si>
-    <t>9.74E+0</t>
-  </si>
-  <si>
-    <t>1.03E+2</t>
-  </si>
-  <si>
-    <t>1.10E+2</t>
-  </si>
-  <si>
-    <t>2.25E+1</t>
-  </si>
-  <si>
-    <t>8.91E+2</t>
-  </si>
-  <si>
-    <t>9.78E+1</t>
-  </si>
-  <si>
-    <t>7.20E+1</t>
-  </si>
-  <si>
-    <t>2.39E+2</t>
-  </si>
-  <si>
-    <t>2.21E+2</t>
-  </si>
-  <si>
     <t>5.08E+5</t>
   </si>
   <si>
-    <t>2.00E+2</t>
-  </si>
-  <si>
-    <t>5.76E+4</t>
-  </si>
-  <si>
-    <t>3.66E-1</t>
-  </si>
-  <si>
-    <t>1.19E+1</t>
-  </si>
-  <si>
-    <t>3.47E-7</t>
-  </si>
-  <si>
-    <t>2.76E+1</t>
-  </si>
-  <si>
-    <t>1.29E+1</t>
-  </si>
-  <si>
-    <t>3.45E+1</t>
-  </si>
-  <si>
-    <t>6.02E+2</t>
-  </si>
-  <si>
-    <t>1.45E+1</t>
-  </si>
-  <si>
-    <t>6.61E+4</t>
-  </si>
-  <si>
-    <t>2.26E+2</t>
-  </si>
-  <si>
-    <t>4.49E+3</t>
-  </si>
-  <si>
-    <t>4.05E+2</t>
-  </si>
-  <si>
-    <t>5.97E+0</t>
-  </si>
-  <si>
-    <t>2.99E+3</t>
-  </si>
-  <si>
-    <t>1.51E+4</t>
-  </si>
-  <si>
-    <t>3.98E+0</t>
-  </si>
-  <si>
-    <t>2.29E+2</t>
-  </si>
-  <si>
-    <t>1.01E+2</t>
-  </si>
-  <si>
-    <t>3.23E+2</t>
-  </si>
-  <si>
-    <t>1.00E+2</t>
-  </si>
-  <si>
-    <t>3.99E+2</t>
-  </si>
-  <si>
-    <t>4.34E+2</t>
-  </si>
-  <si>
-    <t>3.98E+2</t>
-  </si>
-  <si>
-    <t>9.09E-6</t>
-  </si>
-  <si>
-    <t>3.12E+2</t>
-  </si>
-  <si>
     <t>3.23E+4</t>
   </si>
   <si>
-    <t>1.24E+4</t>
-  </si>
-  <si>
-    <t>1.26E+5</t>
-  </si>
-  <si>
-    <t>1.56E+0</t>
-  </si>
-  <si>
-    <t>2.39E+1</t>
-  </si>
-  <si>
-    <t>5.36E-7</t>
-  </si>
-  <si>
-    <t>3.07E+1</t>
-  </si>
-  <si>
-    <t>1.49E+1</t>
-  </si>
-  <si>
-    <t>8.26E+1</t>
-  </si>
-  <si>
-    <t>7.38E+2</t>
-  </si>
-  <si>
-    <t>3.00E+1</t>
-  </si>
-  <si>
-    <t>6.22E+5</t>
-  </si>
-  <si>
-    <t>2.88E+4</t>
-  </si>
-  <si>
-    <t>6.49E+4</t>
-  </si>
-  <si>
-    <t>1.24E+5</t>
-  </si>
-  <si>
-    <t>4.75E+2</t>
-  </si>
-  <si>
-    <t>2.03E+1</t>
-  </si>
-  <si>
-    <t>5.70E+5</t>
-  </si>
-  <si>
-    <t>3.48E+4</t>
-  </si>
-  <si>
-    <t>2.30E+2</t>
-  </si>
-  <si>
-    <t>1.21E+3</t>
-  </si>
-  <si>
-    <t>3.44E+2</t>
-  </si>
-  <si>
-    <t>4.47E+2</t>
-  </si>
-  <si>
-    <t>1.40E+3</t>
-  </si>
-  <si>
-    <t>4.03E+2</t>
-  </si>
-  <si>
-    <t>3.66E+2</t>
-  </si>
-  <si>
-    <t>3.32E+2</t>
-  </si>
-  <si>
     <t>9.08E+4</t>
   </si>
   <si>
-    <t>6.30E+3</t>
-  </si>
-  <si>
-    <t>9.18E+4</t>
-  </si>
-  <si>
-    <t>9.61E-1</t>
-  </si>
-  <si>
-    <t>1.79E+1</t>
-  </si>
-  <si>
-    <t>4.41E-7</t>
-  </si>
-  <si>
-    <t>2.91E+1</t>
-  </si>
-  <si>
-    <t>1.39E+1</t>
-  </si>
-  <si>
-    <t>5.85E+1</t>
-  </si>
-  <si>
-    <t>6.70E+2</t>
-  </si>
-  <si>
-    <t>2.23E+1</t>
-  </si>
-  <si>
-    <t>3.44E+5</t>
-  </si>
-  <si>
-    <t>1.45E+4</t>
-  </si>
-  <si>
-    <t>3.47E+4</t>
-  </si>
-  <si>
-    <t>6.26E+4</t>
-  </si>
-  <si>
-    <t>4.40E+2</t>
-  </si>
-  <si>
-    <t>1.32E+1</t>
-  </si>
-  <si>
-    <t>2.87E+5</t>
-  </si>
-  <si>
-    <t>2.50E+4</t>
-  </si>
-  <si>
-    <t>6.55E+2</t>
-  </si>
-  <si>
-    <t>3.34E+2</t>
-  </si>
-  <si>
-    <t>2.22E+2</t>
-  </si>
-  <si>
-    <t>4.23E+2</t>
-  </si>
-  <si>
-    <t>9.17E+2</t>
-  </si>
-  <si>
-    <t>4.00E+2</t>
-  </si>
-  <si>
-    <t>1.83E+2</t>
-  </si>
-  <si>
     <t>6.15E+4</t>
   </si>
   <si>
-    <t>8.63E+3</t>
-  </si>
-  <si>
-    <t>4.83E+4</t>
-  </si>
-  <si>
-    <t>8.41E-1</t>
-  </si>
-  <si>
-    <t>8.44E+0</t>
-  </si>
-  <si>
-    <t>1.33E-7</t>
-  </si>
-  <si>
-    <t>2.18E+0</t>
-  </si>
-  <si>
-    <t>1.41E+0</t>
-  </si>
-  <si>
-    <t>3.40E+1</t>
-  </si>
-  <si>
-    <t>9.67E+1</t>
-  </si>
-  <si>
-    <t>1.10E+1</t>
-  </si>
-  <si>
-    <t>3.93E+5</t>
-  </si>
-  <si>
-    <t>2.02E+4</t>
-  </si>
-  <si>
-    <t>4.27E+4</t>
-  </si>
-  <si>
-    <t>8.72E+4</t>
-  </si>
-  <si>
-    <t>5.00E+1</t>
-  </si>
-  <si>
-    <t>1.02E+1</t>
-  </si>
-  <si>
-    <t>4.01E+5</t>
-  </si>
-  <si>
-    <t>1.39E+4</t>
-  </si>
-  <si>
-    <t>1.03E-4</t>
-  </si>
-  <si>
-    <t>3.21E-1</t>
-  </si>
-  <si>
-    <t>7.83E+2</t>
-  </si>
-  <si>
-    <t>1.46E+1</t>
-  </si>
-  <si>
-    <t>1.72E+2</t>
-  </si>
-  <si>
-    <t>3.38E+1</t>
-  </si>
-  <si>
-    <t>6.84E+2</t>
-  </si>
-  <si>
-    <t>3.56E+0</t>
-  </si>
-  <si>
-    <t>2.59E+2</t>
-  </si>
-  <si>
-    <t>1.43E+1</t>
-  </si>
-  <si>
     <t>4.14E+4</t>
-  </si>
-  <si>
-    <t>AGEO2real2_P_AA_p2-AGEO2real2_P_AA_p3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -726,19 +732,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -761,9 +1104,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -777,11 +1362,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1064,62 +1701,75 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="13" width="9.140625" style="1"/>
+    <col min="1" max="13" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1127,37 +1777,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1165,37 +1815,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1203,37 +1853,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>203</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1241,37 +1891,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1279,37 +1929,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1">
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>205</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1317,37 +1967,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1">
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>206</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1355,37 +2005,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1393,37 +2043,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1">
         <v>9</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1431,37 +2081,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1469,37 +2119,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="G12" s="1">
         <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1507,37 +2157,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G13" s="1">
         <v>12</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1545,37 +2195,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G14" s="1">
         <v>13</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>212</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1583,37 +2233,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G15" s="1">
         <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1621,37 +2271,37 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G16" s="1">
         <v>15</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>214</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1659,37 +2309,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G17" s="1">
         <v>16</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1697,37 +2347,37 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G18" s="1">
         <v>17</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>216</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1735,37 +2385,37 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="G19" s="1">
         <v>18</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1773,37 +2423,37 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="G20" s="1">
         <v>19</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1811,37 +2461,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G21" s="1">
         <v>20</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1849,37 +2499,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="G22" s="1">
         <v>21</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1887,37 +2537,37 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="G23" s="1">
         <v>22</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="L23" s="1" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1925,37 +2575,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="G24" s="1">
         <v>23</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1963,37 +2613,37 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="G25" s="1">
         <v>24</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2001,37 +2651,37 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="G26" s="1">
         <v>25</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2039,37 +2689,37 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="G27" s="1">
         <v>26</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2077,37 +2727,37 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="G28" s="1">
         <v>27</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2115,37 +2765,37 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="G29" s="1">
         <v>28</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2153,37 +2803,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="G30" s="1">
         <v>29</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2191,40 +2841,44 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="G31" s="1">
         <v>30</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>